--- a/01_분석_설계/루또 프로젝트 요구사항 정의서.xlsx
+++ b/01_분석_설계/루또 프로젝트 요구사항 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\01_산출물관리\01_분석_설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3E016-35A6-43EA-A0D0-3A05840C3915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB749FC5-C961-428A-BB2B-75DE43288D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서 탬플릿_01" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>웹 사이트(PC, 모바일)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>다슈, 오브제, 엠도씨, 랩 시리즈, 올리브영, 쿠팡</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -382,6 +378,10 @@
   </si>
   <si>
     <t>환불 요청 들어온 상품을 관리할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2084,8 +2084,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2109,7 +2109,7 @@
     <row r="2" spans="1:8" ht="21.75" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="31"/>
@@ -2138,7 +2138,7 @@
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="39"/>
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="122"/>
       <c r="E8" s="122"/>
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D10" s="128"/>
       <c r="E10" s="128"/>
@@ -2202,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="128"/>
       <c r="E11" s="128"/>
@@ -2214,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="131"/>
       <c r="E12" s="131"/>
@@ -2231,7 +2231,7 @@
     <row r="14" spans="1:8" ht="28.5" customHeight="1">
       <c r="A14" s="31"/>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>20</v>
@@ -2273,13 +2273,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="56" t="s">
-        <v>41</v>
-      </c>
       <c r="F16" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="59"/>
@@ -2292,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="65"/>
@@ -2303,10 +2303,10 @@
       <c r="B18" s="60"/>
       <c r="C18" s="110"/>
       <c r="D18" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="63" t="s">
         <v>87</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>88</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="120"/>
@@ -2317,10 +2317,10 @@
       <c r="B19" s="60"/>
       <c r="C19" s="110"/>
       <c r="D19" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>69</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>70</v>
       </c>
       <c r="F19" s="69"/>
       <c r="G19" s="70"/>
@@ -2333,10 +2333,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -2347,13 +2347,13 @@
       <c r="B21" s="60"/>
       <c r="C21" s="115"/>
       <c r="D21" s="116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="119"/>
       <c r="H21" s="59"/>
@@ -2368,7 +2368,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="58"/>
@@ -2382,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="58"/>
@@ -2393,10 +2393,10 @@
       <c r="B24" s="60"/>
       <c r="C24" s="66"/>
       <c r="D24" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="86" t="s">
         <v>92</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>93</v>
       </c>
       <c r="F24" s="87" t="s">
         <v>32</v>
@@ -2412,7 +2412,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="78"/>
       <c r="G25" s="58"/>
@@ -2423,10 +2423,10 @@
       <c r="B26" s="60"/>
       <c r="C26" s="66"/>
       <c r="D26" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
@@ -2437,10 +2437,10 @@
       <c r="B27" s="60"/>
       <c r="C27" s="66"/>
       <c r="D27" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="81"/>
       <c r="G27" s="82"/>
@@ -2451,7 +2451,7 @@
       <c r="B28" s="60"/>
       <c r="C28" s="66"/>
       <c r="D28" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="89" t="s">
         <v>30</v>
@@ -2467,13 +2467,13 @@
       <c r="B29" s="60"/>
       <c r="C29" s="66"/>
       <c r="D29" s="88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="70"/>
       <c r="H29" s="59"/>
@@ -2483,10 +2483,10 @@
       <c r="B30" s="60"/>
       <c r="C30" s="66"/>
       <c r="D30" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="69" t="s">
         <v>25</v>
@@ -2499,10 +2499,10 @@
       <c r="B31" s="91"/>
       <c r="C31" s="92"/>
       <c r="D31" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="94"/>
       <c r="G31" s="95"/>
@@ -2519,7 +2519,7 @@
     <row r="33" spans="1:6" ht="34.5" customHeight="1">
       <c r="A33" s="31"/>
       <c r="B33" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -2545,13 +2545,13 @@
     <row r="35" spans="1:6" ht="21.75" customHeight="1">
       <c r="A35" s="31"/>
       <c r="B35" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="112" t="s">
         <v>89</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>90</v>
       </c>
       <c r="E35" s="102"/>
       <c r="F35" s="31"/>
@@ -2560,13 +2560,13 @@
       <c r="A36" s="31"/>
       <c r="B36" s="99"/>
       <c r="C36" s="99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="31"/>
     </row>
@@ -2574,10 +2574,10 @@
       <c r="A37" s="31"/>
       <c r="B37" s="99"/>
       <c r="C37" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="101" t="s">
         <v>53</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>54</v>
       </c>
       <c r="E37" s="102"/>
       <c r="F37" s="31"/>
@@ -2586,10 +2586,10 @@
       <c r="A38" s="31"/>
       <c r="B38" s="60"/>
       <c r="C38" s="99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="102"/>
       <c r="F38" s="31"/>
@@ -2598,10 +2598,10 @@
       <c r="A39" s="31"/>
       <c r="B39" s="103"/>
       <c r="C39" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="101" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>95</v>
       </c>
       <c r="E39" s="102"/>
       <c r="F39" s="31"/>
@@ -2610,10 +2610,10 @@
       <c r="A40" s="31"/>
       <c r="B40" s="103"/>
       <c r="C40" s="99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" s="102"/>
       <c r="F40" s="31"/>
@@ -2622,10 +2622,10 @@
       <c r="A41" s="31"/>
       <c r="B41" s="103"/>
       <c r="C41" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="101" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" s="101" t="s">
-        <v>83</v>
       </c>
       <c r="E41" s="102"/>
       <c r="F41" s="31"/>
@@ -2634,10 +2634,10 @@
       <c r="A42" s="31"/>
       <c r="B42" s="103"/>
       <c r="C42" s="99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="102"/>
       <c r="F42" s="31"/>
@@ -2646,10 +2646,10 @@
       <c r="A43" s="31"/>
       <c r="B43" s="103"/>
       <c r="C43" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" s="109"/>
       <c r="F43" s="31"/>
@@ -2658,10 +2658,10 @@
       <c r="A44" s="31"/>
       <c r="B44" s="104"/>
       <c r="C44" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="106" t="s">
         <v>77</v>
-      </c>
-      <c r="D44" s="106" t="s">
-        <v>78</v>
       </c>
       <c r="E44" s="105"/>
       <c r="F44" s="31"/>
